--- a/SimpCity US15 Test Case (Checked).xlsx
+++ b/SimpCity US15 Test Case (Checked).xlsx
@@ -5,24 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claris Toh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65832\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E58789-7B03-41C4-8AFB-B9354E2432E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC627253-3C60-4575-806F-7645F1FDDFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19410" yWindow="7770" windowWidth="27930" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US15 Sprint 4  " sheetId="25" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Test Scenarios for SimpCity</t>
   </si>
@@ -363,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -860,11 +858,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right style="medium">
+        <color theme="2"/>
+      </right>
+      <top style="medium">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -1077,9 +1090,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -1129,9 +1139,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1154,6 +1161,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1169,54 +1224,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,6 +1249,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4037214</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5058987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6FBF35-CBE9-4261-80E0-02DCC3D1E473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17193491" y="4855119"/>
+          <a:ext cx="2818014" cy="4969832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1094510</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3645133</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5001490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D1CD86-56AD-4A5C-AE92-11FA1DAFB4CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17068801" y="10072253"/>
+          <a:ext cx="2550623" cy="4890655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5153892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4099561</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4591397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDCB764-1D53-464C-9652-D506F3932822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16888692" y="15115310"/>
+          <a:ext cx="3185160" cy="4632960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,63 +1738,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAB9E71-AB83-490F-B79D-6D71AA99B819}">
   <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="9"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="18" style="69" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="9" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="72.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="40"/>
       <c r="E1" s="38"/>
       <c r="F1" s="42"/>
-      <c r="G1" s="86"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="31"/>
       <c r="I1" s="39"/>
       <c r="J1" s="56"/>
       <c r="K1" s="12"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="109" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="105" t="s">
+      <c r="I2" s="123"/>
+      <c r="J2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="106"/>
+      <c r="K2" s="120"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="24" t="s">
         <v>5</v>
@@ -1604,7 +1810,7 @@
       <c r="F3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="87"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="44" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1825,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="47" t="s">
         <v>10</v>
@@ -1634,7 +1840,7 @@
       <c r="F4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="43" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1853,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="26" t="s">
         <v>16</v>
@@ -1662,7 +1868,7 @@
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="87"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="26" t="s">
         <v>16</v>
       </c>
@@ -1675,7 +1881,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="29" t="s">
         <v>17</v>
@@ -1687,8 +1893,10 @@
       <c r="E6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="58">
+        <v>44606</v>
+      </c>
+      <c r="G6" s="86"/>
       <c r="H6" s="59" t="s">
         <v>19</v>
       </c>
@@ -1701,26 +1909,26 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="107"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="107" t="s">
+      <c r="F7" s="121"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="107"/>
+      <c r="I7" s="121"/>
       <c r="J7"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="60" t="s">
         <v>24</v>
@@ -1746,7 +1954,7 @@
       <c r="K8" s="36"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="48"/>
       <c r="C9" s="57"/>
@@ -1757,7 +1965,7 @@
       <c r="F9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="65" t="s">
         <v>14</v>
       </c>
@@ -1768,12 +1976,12 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="89"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="51" t="s">
         <v>20</v>
       </c>
@@ -1784,7 +1992,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1798,20 +2006,20 @@
       <c r="K11" s="13"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="70"/>
       <c r="B12" s="14"/>
       <c r="C12" s="54"/>
       <c r="D12" s="53"/>
       <c r="E12" s="55"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="90"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="16"/>
       <c r="I12" s="7"/>
       <c r="J12" s="16"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>27</v>
       </c>
@@ -1830,7 +2038,7 @@
       <c r="F13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="90" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -1846,110 +2054,116 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="68" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110">
+    <row r="14" spans="1:12" s="68" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="103">
         <v>1</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
     </row>
-    <row r="15" spans="1:12" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="82" t="s">
+    <row r="15" spans="1:12" ht="408.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="103"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="123" t="s">
+      <c r="G15" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="80"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="79"/>
     </row>
-    <row r="16" spans="1:12" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95">
+    <row r="16" spans="1:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="94">
         <v>2</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="101" t="s">
+      <c r="F16" s="114"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
+      <c r="I16"/>
+      <c r="J16" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:41" s="79" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94">
+    <row r="17" spans="1:41" s="78" customFormat="1" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="93">
         <v>3</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="122"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="101" t="s">
+      <c r="F17" s="115"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="77"/>
+      <c r="I17"/>
+      <c r="J17" s="77" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" s="99" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92">
+    <row r="18" spans="1:41" s="97" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="91">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="D18" s="93"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="85"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="4"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1986,7 +2200,7 @@
       <c r="AN18"/>
       <c r="AO18" s="10"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="75"/>
@@ -1999,7 +2213,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2012,7 +2226,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2025,7 +2239,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2038,7 +2252,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2051,7 +2265,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2066,13 +2280,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
@@ -2081,6 +2288,13 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F15 F18" xr:uid="{06FCE153-734C-41CE-AF75-767C1618DC76}">
@@ -2095,5 +2309,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>